--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:41:35+00:00</t>
+    <t>2025-10-09T09:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:07:51+00:00</t>
+    <t>2025-10-09T12:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/mode-of-transport-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/PH-RoadSafety-ModeOfTransport</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Mode of Transport ValueSet (example)</t>
+    <t>Mode of Transport to Facility</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,13 +54,10 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:26:29+00:00</t>
+    <t>2025-10-09T16:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Sample ValueSet capturing transport modes.</t>
+    <t>Transport mode answer list using LOINC Answer List codes; Observation.code should be LOINC 74286-6.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -102,10 +99,31 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>LA9318-2</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>LA9321-6</t>
+  </si>
+  <si>
+    <t>Walk-in following nonambulance, law enforcement transport</t>
+  </si>
+  <si>
+    <t>LA9319-0</t>
+  </si>
+  <si>
+    <t>Walk-in following transport via private transportation</t>
+  </si>
+  <si>
+    <t>LA9323-2</t>
+  </si>
+  <si>
+    <t>Other mode of transport</t>
   </si>
   <si>
     <t/>
@@ -114,7 +132,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/mode-of-transport-cs</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -310,76 +328,74 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -389,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,11 +417,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
     </row>
@@ -414,15 +436,39 @@
         <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T16:04:50+00:00</t>
+    <t>2025-10-09T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T17:33:43+00:00</t>
+    <t>2025-10-09T18:52:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T02:17:32+00:00</t>
+    <t>2025-10-21T04:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T04:48:52+00:00</t>
+    <t>2025-10-21T09:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-mode-of-transport-vs.xlsx
+++ b/ValueSet-mode-of-transport-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:02:18+00:00</t>
+    <t>2025-10-21T09:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
